--- a/WX_img_Download/Save_Excel.xlsx
+++ b/WX_img_Download/Save_Excel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,6 +376,12 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -383,7 +389,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>img_2019-08-24_14</t>
+          <t>img_20191004202938.621603</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,6 +400,17 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>png</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.621603](./images/img_20191004202938.621603.png)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_png/KmXPKA19gW8ytVicE1O0s0Mgah7D455yDjCVspwCwkNOKxoibSctmKsJ5UtmZQvBmJ570Yv3H0pKsIUFYGUsdc7w/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1&amp;wx_co=1)
+</t>
         </is>
       </c>
     </row>
@@ -403,7 +420,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>img_2019-08-24_30</t>
+          <t>img_20191004202938.621758</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -414,6 +431,17 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.621758](./images/img_20191004202938.621758.gif)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yDFcQVoczkWr1Y1CyWT9hVMbiaAaw2gCPpoT1oK1so42cenyRwfPjk7xw/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
@@ -423,7 +451,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>img_2019-08-24_38</t>
+          <t>img_20191004202938.621840</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -434,6 +462,17 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.621840](./images/img_20191004202938.621840.gif)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yD84WJic2NoeXldcia2FzrSE3nRKAZZxlWNksCYibBtohrTicOOb5kDhhkHQ/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
@@ -443,7 +482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>img_2019-08-24_46</t>
+          <t>img_20191004202938.621913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -454,6 +493,17 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.621913](./images/img_20191004202938.621913.gif)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yD6fYickDfhp35Pweiahic21BNyUrOdsaxszg2BoXa1686NEcbydoYXlMEw/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
@@ -463,7 +513,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>img_2019-08-24_78</t>
+          <t>img_20191004202938.622033</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -474,6 +524,17 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.622033](./images/img_20191004202938.622033.gif)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yDmS6eVrZqXEKmg6WcxOtibq6OKWbniaO5uE5nhJhjlAxiaTpIRtpbEshow/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
@@ -483,7 +544,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>img_2019-08-24_145</t>
+          <t>img_20191004202938.622232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -494,6 +555,17 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.622232](./images/img_20191004202938.622232.png)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_png/KmXPKA19gW8ytVicE1O0s0Mgah7D455yDCcAEyzXQRicKm0bnx2ccr7kKA4t8DwdqB3kjHvcUKVhwRowC3aJDJFQ/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1&amp;wx_co=1)
+</t>
         </is>
       </c>
     </row>
@@ -503,7 +575,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>img_2019-08-24_161</t>
+          <t>img_20191004202938.622318</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -514,6 +586,17 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.622318](./images/img_20191004202938.622318.gif)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yDtqbmzUFpqKKVF6VreE6MbMaKfC5GDNXwnLz66BSzyWialm2W38x9dww/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
@@ -523,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>img_2019-08-24_177</t>
+          <t>img_20191004202938.622580</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -534,6 +617,17 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>gif</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>![img_20191004202938.622580](./images/img_20191004202938.622580.gif)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">![img](https://mmbiz.qpic.cn/mmbiz_gif/KmXPKA19gW8ytVicE1O0s0Mgah7D455yD7qkMrooAYszbiaiaJiae10sic9KspKI62Sc8WhY75pReoDe6fTkqa6Q8dw/640?wx_fmt=gif&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1)
+</t>
         </is>
       </c>
     </row>
